--- a/template/ebay_be.xlsx
+++ b/template/ebay_be.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32600" windowHeight="12760"/>
+    <workbookView windowHeight="13660"/>
   </bookViews>
   <sheets>
     <sheet name="LWT for Ebay" sheetId="1" r:id="rId1"/>
-    <sheet name="公式模版" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>European eBay Declared Value-Analysis Report(v2.0)</t>
   </si>
@@ -79,7 +78,7 @@
     <t>Market Place</t>
   </si>
   <si>
-    <t>eBay cost(In Euro)</t>
+    <t>Ebay cost(In Euro)</t>
   </si>
   <si>
     <t>LOCAL Cost(Euro/ KG)</t>
@@ -369,125 +368,20 @@
   <si>
     <t>ASL</t>
   </si>
-  <si>
-    <t>European Amazon Declared Value-Analysis Report</t>
-  </si>
-  <si>
-    <t>Asin code</t>
-  </si>
-  <si>
-    <t>Country of Amazon warehouse</t>
-  </si>
-  <si>
-    <t>Selling Price in Amazon</t>
-  </si>
-  <si>
-    <t>Amazon cost(In Euro)</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
-    <t>NL LOCAL Cost(Euro/ KG)</t>
-  </si>
-  <si>
-    <t>Customs Value includes freight cost occurred outside EU-NL (In Euro)</t>
-  </si>
-  <si>
-    <t>NL Duty</t>
-  </si>
-  <si>
-    <t>Referral rares</t>
-  </si>
-  <si>
-    <t>Referral%</t>
-  </si>
-  <si>
-    <t>Referral Fees</t>
-  </si>
-  <si>
-    <t>Closing Fee</t>
-  </si>
-  <si>
-    <t>High volume lising Fee</t>
-  </si>
-  <si>
-    <t>Processing rate</t>
-  </si>
-  <si>
-    <t>Processing Fee</t>
-  </si>
-  <si>
-    <t>Authorisation rates</t>
-  </si>
-  <si>
-    <t>Authorisation Fee</t>
-  </si>
-  <si>
-    <t>Interchangeable Rate</t>
-  </si>
-  <si>
-    <t>Interchangeable Fee</t>
-  </si>
-  <si>
-    <t>Fulfillment fee</t>
-  </si>
-  <si>
-    <t>Advertising Fee</t>
-  </si>
-  <si>
-    <t>Profit Rate</t>
-  </si>
-  <si>
-    <t>Ground Sercice Rate</t>
-  </si>
-  <si>
-    <t>Ground Sercice Fee</t>
-  </si>
-  <si>
-    <t>Delivery To Amazon</t>
-  </si>
-  <si>
-    <t>NL Duty Rate</t>
-  </si>
-  <si>
-    <t>NL Duty Rate(%)</t>
-  </si>
-  <si>
-    <t>NL Duty Amount</t>
-  </si>
-  <si>
-    <t>AsinCode</t>
-  </si>
-  <si>
-    <t>NameOfTheProduct</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Hscode</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/gp/product/B07Y82XX51</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="11">
+  <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00&quot; &quot;"/>
-    <numFmt numFmtId="177" formatCode="#,##0&quot; &quot;"/>
-    <numFmt numFmtId="178" formatCode="0.00000000&quot; &quot;"/>
-    <numFmt numFmtId="179" formatCode="0.0000"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00&quot; &quot;"/>
-    <numFmt numFmtId="181" formatCode="0.000000"/>
-    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.00&quot; &quot;"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.000000"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -509,15 +403,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <u/>
+      <sz val="16"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -905,49 +799,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1193,7 +1050,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1205,34 +1062,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1317,152 +1174,109 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3006,8 +2820,8 @@
   <sheetPr/>
   <dimension ref="A1:AP17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14" customHeight="1"/>
@@ -3050,892 +2864,892 @@
   </cols>
   <sheetData>
     <row r="1" ht="34.5" customHeight="1" spans="1:42">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="36"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="5"/>
     </row>
     <row r="2" ht="26.5" customHeight="1" spans="1:42">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="9" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="9" t="s">
+      <c r="S2" s="7"/>
+      <c r="T2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="9" t="s">
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="9" t="s">
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AL2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AM2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="11" t="s">
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:42">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="9" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AG3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AH3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AI3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="9" t="s">
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AN3" s="13" t="s">
+      <c r="AN3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AO3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AP3" s="14"/>
+      <c r="AP3" s="11"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:42">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="41"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="18"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:42">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="46"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="25"/>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="1:42">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="46"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="25"/>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:42">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="54" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="32"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="35"/>
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="1:42">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="54" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="32"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="35"/>
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="1:42">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="32"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="35"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:42">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="55" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="32"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="35"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:42">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="32"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="35"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:42">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="32"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="35"/>
     </row>
     <row r="13" ht="16.5" customHeight="1" spans="1:42">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="54" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="32"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="35"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:42">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="55" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="31"/>
-      <c r="AP14" s="32"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="35"/>
     </row>
     <row r="15" ht="16.5" customHeight="1" spans="1:42">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="54" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="32"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="35"/>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:42">
-      <c r="A16" s="57"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="44"/>
-      <c r="AJ16" s="44"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="46"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="25"/>
     </row>
     <row r="17" ht="25.5" customHeight="1" spans="1:42">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="64" t="s">
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="65"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="34"/>
-      <c r="AO17" s="67"/>
-      <c r="AP17" s="68"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="46"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3977,892 +3791,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BA10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="13" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.6696428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3482142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.66964285714286" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.84821428571429" style="1" customWidth="1"/>
-    <col min="9" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.66964285714286" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
-    <col min="15" max="17" width="8.84821428571429" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1696428571429" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.34821428571429" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.3482142857143" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.16964285714286" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.34821428571429" style="1" customWidth="1"/>
-    <col min="24" max="24" width="4" style="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.3482142857143" style="1" customWidth="1"/>
-    <col min="28" max="28" width="14" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.8482142857143" style="1" customWidth="1"/>
-    <col min="30" max="30" width="17.5" style="1" customWidth="1"/>
-    <col min="31" max="33" width="11.8482142857143" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5" style="1" customWidth="1"/>
-    <col min="35" max="36" width="5.5" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10" style="1" customWidth="1"/>
-    <col min="38" max="38" width="8.84821428571429" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.6696428571429" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.3482142857143" style="1" customWidth="1"/>
-    <col min="41" max="42" width="10.6696428571429" style="1" customWidth="1"/>
-    <col min="43" max="43" width="9" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.1696428571429" style="1" customWidth="1"/>
-    <col min="45" max="45" width="14.5" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13" style="1" customWidth="1"/>
-    <col min="47" max="47" width="9" style="1" customWidth="1"/>
-    <col min="48" max="48" width="14.8482142857143" style="1" customWidth="1"/>
-    <col min="49" max="49" width="19" style="1" customWidth="1"/>
-    <col min="50" max="51" width="8" style="1" customWidth="1"/>
-    <col min="52" max="52" width="8.16964285714286" style="1" customWidth="1"/>
-    <col min="53" max="53" width="13.8482142857143" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="8.84821428571429" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="8" customHeight="1" spans="1:53">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="4"/>
-    </row>
-    <row r="2" ht="34.5" customHeight="1" spans="1:53">
-      <c r="A2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="8"/>
-    </row>
-    <row r="3" ht="26.5" customHeight="1" spans="1:53">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="60" customHeight="1" spans="1:53">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH4" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY4" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ4" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA4" s="14"/>
-    </row>
-    <row r="5" ht="26.5" customHeight="1" spans="1:53">
-      <c r="A5" s="15">
-        <v>1</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <f>F5*G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <f>35.315*I5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="N5" s="19">
-        <v>0</v>
-      </c>
-      <c r="O5" s="15">
-        <v>0</v>
-      </c>
-      <c r="P5" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="15">
-        <f>P5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="19">
-        <v>0</v>
-      </c>
-      <c r="S5" s="20">
-        <f>Q5-Q5/(1+R5)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="19">
-        <v>0</v>
-      </c>
-      <c r="U5" s="21" t="str">
-        <f>T5*100&amp;"%"</f>
-        <v>0%</v>
-      </c>
-      <c r="V5" s="22">
-        <f>Q5*U5</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="15">
-        <v>0</v>
-      </c>
-      <c r="X5" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="19">
-        <f>Q5*Y5</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="19">
-        <f>IF(K5="GB",AA5*N5,AA5)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="22">
-        <f>AC5*Q5</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="22">
-        <f>IF(K5="GB",AF5*J5,AF5*I5)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="22">
-        <f>AI5*(Q5-S5-V5-W5-X5-Z5-AB5-AD5-AE5-AG5)</f>
-        <v>0</v>
-      </c>
-      <c r="AK5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="19">
-        <f>AK5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="19">
-        <f>AM5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="19">
-        <f>AO5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="19">
-        <f>AQ5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="AS5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="19">
-        <f>AS5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="AU5" s="19">
-        <f>AL5+AN5+AP5+AR5+AT5</f>
-        <v>0</v>
-      </c>
-      <c r="AV5" s="19">
-        <f>IF((Q5-S5-V5-Z5-AB5-AD5-AE5-AG5-AJ5-AU5)&lt;1,Q5*0.3,Q5-S5-V5-Z5-AB5-AD5-AE5-AG5-AJ5-AU5)</f>
-        <v>0</v>
-      </c>
-      <c r="AW5" s="19">
-        <f>AV5/(1+AY5)</f>
-        <v>0</v>
-      </c>
-      <c r="AX5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="24" t="str">
-        <f>AX5*100&amp;"%"</f>
-        <v>0%</v>
-      </c>
-      <c r="AZ5" s="25">
-        <f>AW5*AX5</f>
-        <v>0</v>
-      </c>
-      <c r="BA5" s="26">
-        <f>AW5*D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="16" customHeight="1" spans="1:53">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="28"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="28"/>
-      <c r="AU6" s="28"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="28"/>
-      <c r="AX6" s="28"/>
-      <c r="AY6" s="28"/>
-      <c r="AZ6" s="28"/>
-      <c r="BA6" s="29"/>
-    </row>
-    <row r="7" ht="16" customHeight="1" spans="1:53">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="31"/>
-      <c r="AY7" s="31"/>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="32"/>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="1:53">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="31"/>
-      <c r="AS8" s="31"/>
-      <c r="AT8" s="31"/>
-      <c r="AU8" s="31"/>
-      <c r="AV8" s="31"/>
-      <c r="AW8" s="31"/>
-      <c r="AX8" s="31"/>
-      <c r="AY8" s="31"/>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="32"/>
-    </row>
-    <row r="9" ht="16" customHeight="1" spans="1:53">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31"/>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="32"/>
-    </row>
-    <row r="10" ht="16" customHeight="1" spans="1:53">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="34"/>
-      <c r="AS10" s="34"/>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="34"/>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="34"/>
-      <c r="AZ10" s="34"/>
-      <c r="BA10" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A2:AZ2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AU3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="BA3:BA4"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>